--- a/Documentation/Team5_Estimated_Effort.xlsx
+++ b/Documentation/Team5_Estimated_Effort.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgt58cfdjpzq+SeVhBG1hjbcPjtHg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhA3py0V0Z/W5996J9VHocjs60/0w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Subtotals</t>
-  </si>
-  <si>
-    <t>Preliminary &amp;</t>
   </si>
   <si>
     <t>Parallel Tasks</t>
@@ -157,6 +154,12 @@
     <t>Iteration 1 Report</t>
   </si>
   <si>
+    <t>Risk Management Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteration 2 Report </t>
+  </si>
+  <si>
     <t>Iteration 1:</t>
   </si>
   <si>
@@ -218,6 +221,129 @@
     <t>Design</t>
   </si>
   <si>
+    <t>Table Structures</t>
+  </si>
+  <si>
+    <t>Project Manager &amp; Database Admin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Davith(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Bryan, David</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Database Chen Diagram</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>David(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Bryan, Davith</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Added Required Fonts and Colors</t>
+  </si>
+  <si>
+    <t>UI/UX Designer</t>
+  </si>
+  <si>
+    <t>Sandy(Trevor)</t>
+  </si>
+  <si>
+    <t>Created an About Page</t>
+  </si>
+  <si>
+    <t>Created a Login Page</t>
+  </si>
+  <si>
+    <t>Added a Navigation Bar</t>
+  </si>
+  <si>
+    <t>Set up Microsoft Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Admin </t>
+  </si>
+  <si>
+    <t>David Hoang</t>
+  </si>
+  <si>
+    <t>Planned for upcoming demo for midterm</t>
+  </si>
+  <si>
+    <t>Identified risks for project development</t>
+  </si>
+  <si>
+    <t>Compared different Notification structures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Bryan</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>(Davith, David)</t>
+    </r>
+  </si>
+  <si>
     <t>Iteration 3:</t>
   </si>
   <si>
@@ -231,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -267,10 +393,7 @@
     <font>
       <b/>
       <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -288,12 +411,7 @@
       <color rgb="FF800000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <b/>
       <sz val="12.0"/>
@@ -345,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="36">
     <border/>
     <border>
       <left style="thin">
@@ -425,6 +543,28 @@
       </bottom>
     </border>
     <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -450,7 +590,9 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
@@ -484,17 +626,138 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right/>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
       <top/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -525,7 +788,7 @@
     <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -543,7 +806,7 @@
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -570,256 +833,380 @@
     <xf borderId="6" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="5" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="5" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="5" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="34" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="18" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="17" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -828,37 +1215,34 @@
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="2" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="7" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="7" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1277,7 +1661,7 @@
       <c r="P4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="24"/>
@@ -1298,74 +1682,84 @@
       <c r="AG4" s="5"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="31">
+        <f>SUM(F6)</f>
+        <v>2</v>
+      </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-    </row>
-    <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>15</v>
+      <c r="I5" s="31">
+        <f>SUM(H6)</f>
+        <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33">
+        <f>SUM(M6:Q6)</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38">
-        <f>SUM(F7)</f>
-        <v>2</v>
+      <c r="D6" s="36" t="s">
+        <v>17</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38">
-        <f>SUM(H7)</f>
-        <v>2</v>
+      <c r="E6" s="37" t="s">
+        <v>18</v>
       </c>
+      <c r="F6" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="39"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40">
-        <f>SUM(M7:Q7)</f>
-        <v>2</v>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41">
+        <v>2.0</v>
       </c>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1382,37 +1776,36 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="44" t="s">
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="45">
-        <v>2.0</v>
+      <c r="C7" s="27"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31">
+        <f>SUM(F8)</f>
+        <v>1</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="45">
-        <v>2.0</v>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31">
+        <f>SUM(H8)</f>
+        <v>1</v>
       </c>
-      <c r="I7" s="46"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47">
-        <v>2.0</v>
+      <c r="M7" s="32"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="33">
+        <f>SUM(M8:Q8)</f>
+        <v>5</v>
       </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1429,36 +1822,45 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+    <row r="8" ht="34.5" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38">
-        <f>SUM(F9)</f>
-        <v>1</v>
+      <c r="D8" s="36" t="s">
+        <v>21</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38">
-        <f>SUM(H9)</f>
-        <v>1</v>
+      <c r="E8" s="47" t="s">
+        <v>22</v>
       </c>
+      <c r="F8" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="39"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40">
-        <f>SUM(M9:Q9)</f>
-        <v>5</v>
+      <c r="M8" s="40">
+        <v>1.0</v>
       </c>
+      <c r="N8" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="P8" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="R8" s="42"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1475,45 +1877,36 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" ht="34.5" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="51" t="s">
+    <row r="9" ht="15.0" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="45">
-        <v>1.0</v>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31">
+        <f>SUM(F10:F15)</f>
+        <v>8</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="45">
-        <v>1.0</v>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31">
+        <f>SUM(H10:H15)</f>
+        <v>11</v>
       </c>
-      <c r="I9" s="46"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="47">
-        <v>1.0</v>
+      <c r="M9" s="32"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="33">
+        <f>SUM(M10:Q15)</f>
+        <v>54</v>
       </c>
-      <c r="N9" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="P9" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="R9" s="48"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1530,36 +1923,45 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+    <row r="10" ht="30.75" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38">
-        <f>SUM(F11:F14)</f>
-        <v>6.5</v>
+      <c r="D10" s="36" t="s">
+        <v>21</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38">
-        <f>SUM(H11:H14)</f>
-        <v>9.25</v>
+      <c r="E10" s="47" t="s">
+        <v>22</v>
       </c>
+      <c r="F10" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="I10" s="39"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40">
-        <f>SUM(M11:Q14)</f>
-        <v>46.25</v>
+      <c r="M10" s="40">
+        <v>4.0</v>
       </c>
+      <c r="N10" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="O10" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="P10" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="R10" s="42"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1576,45 +1978,45 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" ht="30.75" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="52" t="s">
+    <row r="11" ht="28.5" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>23</v>
+      <c r="F11" s="38">
+        <v>3.0</v>
       </c>
-      <c r="F11" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="45">
+      <c r="G11" s="39"/>
+      <c r="H11" s="38">
         <v>4.0</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="47">
+      <c r="M11" s="40">
         <v>4.0</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="41">
         <v>4.0</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="41">
         <v>4.0</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="41">
         <v>4.0</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="41">
         <v>4.0</v>
       </c>
-      <c r="R11" s="48"/>
+      <c r="R11" s="42"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -1631,45 +2033,45 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" ht="28.5" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="52" t="s">
+    <row r="12">
+      <c r="A12" s="25"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>23</v>
+      <c r="F12" s="38">
+        <v>1.0</v>
       </c>
-      <c r="F12" s="45">
-        <v>3.0</v>
+      <c r="G12" s="39"/>
+      <c r="H12" s="38">
+        <v>1.0</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="45">
-        <v>4.0</v>
-      </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="47">
-        <v>4.0</v>
+      <c r="M12" s="40">
+        <v>1.0</v>
       </c>
-      <c r="N12" s="47">
-        <v>4.0</v>
+      <c r="N12" s="41">
+        <v>1.0</v>
       </c>
-      <c r="O12" s="47">
-        <v>4.0</v>
+      <c r="O12" s="41">
+        <v>1.0</v>
       </c>
-      <c r="P12" s="47">
-        <v>4.0</v>
+      <c r="P12" s="41">
+        <v>1.0</v>
       </c>
-      <c r="Q12" s="47">
-        <v>4.0</v>
+      <c r="Q12" s="41">
+        <v>1.0</v>
       </c>
-      <c r="R12" s="48"/>
+      <c r="R12" s="42"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -1687,99 +2089,99 @@
       <c r="AG12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="50" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="51" t="s">
-        <v>23</v>
+      <c r="F13" s="38">
+        <v>0.5</v>
       </c>
-      <c r="F13" s="45">
-        <v>1.0</v>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38">
+        <v>0.25</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="45">
-        <v>1.0</v>
+      <c r="I13" s="39"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="40">
+        <v>0.25</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="47">
-        <v>1.0</v>
+      <c r="N13" s="40">
+        <v>0.25</v>
       </c>
-      <c r="N13" s="47">
-        <v>1.0</v>
+      <c r="O13" s="40">
+        <v>0.25</v>
       </c>
-      <c r="O13" s="47">
-        <v>1.0</v>
+      <c r="P13" s="40">
+        <v>0.25</v>
       </c>
-      <c r="P13" s="47">
-        <v>1.0</v>
+      <c r="Q13" s="40">
+        <v>0.25</v>
       </c>
-      <c r="Q13" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
     </row>
     <row r="14">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="50" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="45">
+      <c r="F14" s="54">
         <v>0.5</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="45">
-        <v>0.25</v>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54">
+        <v>0.75</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="47">
-        <v>0.25</v>
+      <c r="M14" s="56">
+        <v>0.5</v>
       </c>
-      <c r="N14" s="47">
-        <v>0.25</v>
+      <c r="N14" s="57">
+        <v>0.5</v>
       </c>
-      <c r="O14" s="47">
-        <v>0.25</v>
+      <c r="O14" s="57">
+        <v>0.75</v>
       </c>
-      <c r="P14" s="47">
-        <v>0.25</v>
+      <c r="P14" s="57">
+        <v>0.5</v>
       </c>
-      <c r="Q14" s="47">
-        <v>0.25</v>
+      <c r="Q14" s="57">
+        <v>0.5</v>
       </c>
-      <c r="R14" s="48"/>
+      <c r="R14" s="58"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1796,93 +2198,93 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="53" t="s">
+    <row r="15">
+      <c r="A15" s="59"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="D15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="O15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="P15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="R15" s="62"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="A16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="38">
-        <f>SUM(F16:F20)</f>
+      <c r="B16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="31">
+        <f>SUM(F17:F21)</f>
         <v>6.5</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="38">
-        <f>SUM(H16:H20)</f>
+      <c r="H16" s="67"/>
+      <c r="I16" s="31">
+        <f>SUM(H17:H21)</f>
         <v>6.5</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59">
-        <f>SUM(M16:Q20)</f>
-        <v>20.5</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="53"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="66"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="67">
-        <v>1.0</v>
+      <c r="M16" s="32"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="69">
+        <f>SUM(M17:Q21)</f>
+        <v>20.5</v>
       </c>
-      <c r="N16" s="67">
-        <v>1.0</v>
-      </c>
-      <c r="O16" s="67">
-        <v>1.0</v>
-      </c>
-      <c r="P16" s="67">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" s="67">
-        <v>1.0</v>
-      </c>
-      <c r="R16" s="68"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1900,91 +2302,99 @@
       <c r="AG16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="53"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="61" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="64">
+      <c r="F17" s="74">
         <v>1.0</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="64">
+      <c r="G17" s="75"/>
+      <c r="H17" s="74">
         <v>1.0</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="67">
+      <c r="I17" s="76"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="77">
         <v>1.0</v>
       </c>
-      <c r="N17" s="67">
+      <c r="N17" s="78">
         <v>1.0</v>
       </c>
-      <c r="O17" s="67">
+      <c r="O17" s="78">
         <v>1.0</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="78">
         <v>1.0</v>
       </c>
-      <c r="Q17" s="67">
+      <c r="Q17" s="78">
         <v>1.0</v>
       </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="61" t="s">
+      <c r="R17" s="79"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="63"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>34</v>
+      <c r="D18" s="72" t="s">
+        <v>21</v>
       </c>
-      <c r="E18" s="62" t="s">
-        <v>35</v>
+      <c r="E18" s="73" t="s">
+        <v>22</v>
       </c>
-      <c r="F18" s="64">
-        <v>3.0</v>
+      <c r="F18" s="74">
+        <v>1.0</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="64">
-        <v>3.0</v>
+      <c r="G18" s="75"/>
+      <c r="H18" s="74">
+        <v>1.0</v>
       </c>
-      <c r="I18" s="65"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67">
-        <v>3.0</v>
+      <c r="M18" s="77">
+        <v>1.0</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
+      <c r="N18" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="O18" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="P18" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="R18" s="79"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -2001,45 +2411,37 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19">
-      <c r="A19" s="53"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70" t="s">
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>22</v>
+      <c r="F19" s="74">
+        <v>3.0</v>
       </c>
-      <c r="E19" s="63" t="s">
-        <v>23</v>
+      <c r="G19" s="75"/>
+      <c r="H19" s="74">
+        <v>3.0</v>
       </c>
-      <c r="F19" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="65"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="67">
-        <v>0.5</v>
+      <c r="M19" s="77"/>
+      <c r="N19" s="78">
+        <v>3.0</v>
       </c>
-      <c r="N19" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="O19" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="P19" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="68"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -2057,44 +2459,44 @@
       <c r="AG19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="53"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="70" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="63" t="s">
-        <v>23</v>
+      <c r="F20" s="74">
+        <v>1.0</v>
       </c>
-      <c r="F20" s="64">
+      <c r="G20" s="75"/>
+      <c r="H20" s="74">
         <v>0.5</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="65"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="67">
-        <v>1.0</v>
+      <c r="M20" s="77">
+        <v>0.5</v>
       </c>
-      <c r="N20" s="67">
-        <v>1.0</v>
+      <c r="N20" s="78">
+        <v>0.5</v>
       </c>
-      <c r="O20" s="67">
-        <v>1.0</v>
+      <c r="O20" s="78">
+        <v>0.5</v>
       </c>
-      <c r="P20" s="67">
-        <v>1.0</v>
+      <c r="P20" s="78">
+        <v>0.5</v>
       </c>
-      <c r="Q20" s="67">
-        <v>1.0</v>
+      <c r="Q20" s="78">
+        <v>0.5</v>
       </c>
-      <c r="R20" s="68"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2111,36 +2513,45 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="72" t="s">
+    <row r="21">
+      <c r="A21" s="63"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="38">
-        <f>SUM(F22:F23)</f>
-        <v>2</v>
+      <c r="D21" s="72" t="s">
+        <v>21</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="38">
-        <f>SUM(H22:H23)</f>
-        <v>1.5</v>
+      <c r="E21" s="73" t="s">
+        <v>22</v>
       </c>
+      <c r="F21" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="75"/>
+      <c r="H21" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="75"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40">
-        <f>SUM(M22:Q23)</f>
-        <v>7.5</v>
+      <c r="M21" s="77">
+        <v>1.0</v>
       </c>
+      <c r="N21" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="O21" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="P21" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="R21" s="79"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2157,45 +2568,36 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="61" t="s">
+    <row r="22" ht="15.0" customHeight="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>40</v>
+      <c r="C22" s="84"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="31">
+        <f>SUM(F23:F24)</f>
+        <v>2</v>
       </c>
-      <c r="E22" s="63" t="s">
-        <v>23</v>
+      <c r="H22" s="85"/>
+      <c r="I22" s="31">
+        <f>SUM(H23:H24)</f>
+        <v>1.5</v>
       </c>
-      <c r="F22" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="65"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="75">
-        <v>1.0</v>
+      <c r="M22" s="32"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="33">
+        <f>SUM(M23:Q24)</f>
+        <v>7.5</v>
       </c>
-      <c r="N22" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="O22" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="R22" s="76"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -2212,45 +2614,45 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" ht="33.0" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="61" t="s">
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="63"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="E23" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="64">
+      <c r="F23" s="74">
         <v>1.0</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="64">
-        <v>0.5</v>
+      <c r="G23" s="75"/>
+      <c r="H23" s="74">
+        <v>1.0</v>
       </c>
-      <c r="I23" s="65"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="64">
-        <v>0.5</v>
+      <c r="M23" s="77">
+        <v>1.0</v>
       </c>
-      <c r="N23" s="64">
-        <v>0.5</v>
+      <c r="N23" s="86">
+        <v>1.0</v>
       </c>
-      <c r="O23" s="64">
-        <v>0.5</v>
+      <c r="O23" s="86">
+        <v>1.0</v>
       </c>
-      <c r="P23" s="64">
-        <v>0.5</v>
+      <c r="P23" s="86">
+        <v>1.0</v>
       </c>
-      <c r="Q23" s="64">
-        <v>0.5</v>
+      <c r="Q23" s="86">
+        <v>1.0</v>
       </c>
-      <c r="R23" s="76"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -2267,119 +2669,144 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="77" t="s">
+    <row r="24" ht="33.0" customHeight="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="D24" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="75"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="P24" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="Q24" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="87"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" ht="15.0" customHeight="1">
+      <c r="A25" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="80">
-        <f>SUM(F25)</f>
-        <v>0</v>
+      <c r="B25" s="89" t="s">
+        <v>44</v>
       </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="80">
-        <f>SUM(H25)</f>
-        <v>0</v>
+      <c r="C25" s="90"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="92">
+        <f>SUM(F26:F27)</f>
+        <v>2</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82">
-        <f>SUM(M24:P24)</f>
-        <v>0</v>
+      <c r="H25" s="85"/>
+      <c r="I25" s="92">
+        <f>SUM(H26:H27)</f>
+        <v>4</v>
       </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-    </row>
-    <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-    </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="33" t="s">
-        <v>30</v>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94">
+        <f>SUM(M26:Q27)</f>
+        <v>6.5</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="80">
-        <f>SUM(F27)</f>
-        <v>0</v>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97" t="s">
+        <v>45</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="80">
-        <f>SUM(H27)</f>
-        <v>0</v>
+      <c r="D26" s="98" t="s">
+        <v>46</v>
       </c>
+      <c r="E26" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="100">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="101"/>
+      <c r="H26" s="100">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="102"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="82">
-        <f>SUM(M26:P26)</f>
-        <v>0</v>
+      <c r="M26" s="103">
+        <v>0.5</v>
       </c>
+      <c r="N26" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="103">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -2396,25 +2823,41 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
     </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
+    <row r="27">
+      <c r="A27" s="88"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="108">
+        <v>3.0</v>
+      </c>
+      <c r="I27" s="102"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
+      <c r="M27" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="N27" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="O27" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -2432,34 +2875,34 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="33" t="s">
-        <v>38</v>
+      <c r="A28" s="88"/>
+      <c r="B28" s="89" t="s">
+        <v>31</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="80">
-        <f>SUM(F29)</f>
-        <v>0</v>
+      <c r="C28" s="90"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="92">
+        <f>SUM(F29:F33)</f>
+        <v>7.5</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="80">
-        <f>SUM(H29)</f>
-        <v>0</v>
+      <c r="H28" s="85"/>
+      <c r="I28" s="92">
+        <f>SUM(H29:H33)</f>
+        <v>9.3</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82">
-        <f>SUM(M28:P28)</f>
-        <v>0</v>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110">
+        <f>SUM(M29:Q33)</f>
+        <v>9.25</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -2478,24 +2921,36 @@
       <c r="AG28" s="4"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="102"/>
+      <c r="H29" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="I29" s="102"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="103">
+        <v>0.25</v>
+      </c>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -2513,72 +2968,83 @@
       <c r="AG29" s="4"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="53" t="s">
-        <v>44</v>
+      <c r="A30" s="88"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="111" t="s">
+        <v>53</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>43</v>
+      <c r="D30" s="52" t="s">
+        <v>51</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="80">
-        <f>SUM(F31)</f>
-        <v>0</v>
+      <c r="E30" s="53" t="s">
+        <v>52</v>
       </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="80">
-        <f>SUM(H31)</f>
-        <v>0</v>
+      <c r="F30" s="54">
+        <v>1.0</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="82">
-        <f>SUM(M30:P30)</f>
-        <v>0</v>
+      <c r="G30" s="102"/>
+      <c r="H30" s="54">
+        <v>3.0</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="103">
+        <v>3.0</v>
+      </c>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="98"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="116"/>
+      <c r="H31" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="116"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="118">
+        <v>1.0</v>
+      </c>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -2596,35 +3062,36 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="33" t="s">
-        <v>30</v>
+      <c r="A32" s="88"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="111" t="s">
+        <v>55</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="80">
-        <f>SUM(F33)</f>
-        <v>0</v>
+      <c r="D32" s="52" t="s">
+        <v>51</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="80">
-        <f>SUM(H33)</f>
-        <v>0</v>
+      <c r="E32" s="53" t="s">
+        <v>52</v>
       </c>
+      <c r="F32" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="102"/>
+      <c r="H32" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="I32" s="102"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="82">
-        <f>SUM(M32:P32)</f>
-        <v>0</v>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="103">
+        <v>1.0</v>
       </c>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -2642,24 +3109,36 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="G33" s="102"/>
+      <c r="H33" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="I33" s="102"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="103">
+        <v>4.0</v>
+      </c>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2677,34 +3156,34 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="105" t="s">
-        <v>38</v>
+      <c r="A34" s="88"/>
+      <c r="B34" s="26" t="s">
+        <v>39</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110">
-        <f>SUM(F35)</f>
-        <v>0</v>
+      <c r="C34" s="120"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="122">
+        <f>SUM(F35:F38)</f>
+        <v>3.5</v>
       </c>
-      <c r="H34" s="109"/>
-      <c r="I34" s="110">
-        <f>SUM(H35)</f>
-        <v>0</v>
+      <c r="H34" s="123"/>
+      <c r="I34" s="92">
+        <f>SUM(H35:H38)</f>
+        <v>3.5</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="112">
-        <f>SUM(M34:P34)</f>
-        <v>0</v>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110">
+        <f>SUM(M35:Q38)</f>
+        <v>7.5</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -2723,24 +3202,36 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="98"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="127">
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="102"/>
+      <c r="H35" s="127">
+        <v>2.0</v>
+      </c>
+      <c r="I35" s="102"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="128">
+        <v>1.0</v>
+      </c>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
@@ -2757,194 +3248,196 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>45</v>
+    <row r="36" ht="15.0" customHeight="1">
+      <c r="A36" s="129"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="132"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="88"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="111" t="s">
+        <v>60</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118">
-        <f t="shared" ref="F36:G36" si="1">SUM(F5:F35)</f>
-        <v>18</v>
+      <c r="D37" s="52" t="s">
+        <v>21</v>
       </c>
-      <c r="G36" s="119">
-        <f t="shared" si="1"/>
-        <v>18</v>
+      <c r="E37" s="53" t="s">
+        <v>22</v>
       </c>
-      <c r="H36" s="120">
-        <f>SUM(M36:P36)</f>
-        <v>66</v>
+      <c r="F37" s="54">
+        <v>1.0</v>
       </c>
-      <c r="I36" s="119">
-        <f>SUM(I5:I35)</f>
-        <v>20.25</v>
+      <c r="G37" s="102"/>
+      <c r="H37" s="54">
+        <v>1.0</v>
       </c>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="120">
-        <f t="shared" ref="M36:P36" si="2">SUM(M5:M35)</f>
-        <v>15.25</v>
+      <c r="I37" s="102"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="103">
+        <v>1.0</v>
       </c>
-      <c r="N36" s="120">
-        <f t="shared" si="2"/>
-        <v>18.25</v>
+      <c r="N37" s="103">
+        <v>1.0</v>
       </c>
-      <c r="O36" s="120">
-        <f t="shared" si="2"/>
-        <v>15.25</v>
+      <c r="O37" s="103">
+        <v>1.0</v>
       </c>
-      <c r="P36" s="120">
-        <f t="shared" si="2"/>
-        <v>17.25</v>
+      <c r="P37" s="103">
+        <v>1.0</v>
       </c>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120">
-        <f>SUM(M36:P36)</f>
-        <v>66</v>
+      <c r="Q37" s="103">
+        <v>1.0</v>
       </c>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
-      <c r="AC36" s="121"/>
-      <c r="AD36" s="121"/>
-      <c r="AE36" s="121"/>
-      <c r="AF36" s="121"/>
-      <c r="AG36" s="121"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="88"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="102"/>
+      <c r="H38" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="102"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="O38" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" ht="15.0" customHeight="1">
+      <c r="A39" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="133"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="92">
+        <f>SUM(F40)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="67"/>
+      <c r="I39" s="92">
+        <f>SUM(H40)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110">
+        <f>SUM(M39:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+    </row>
+    <row r="40" ht="15.0" customHeight="1">
+      <c r="A40" s="134"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="141"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="4"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="142"/>
+      <c r="Q40" s="142"/>
+      <c r="R40" s="142"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -2961,25 +3454,36 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+    <row r="41" ht="15.0" customHeight="1">
+      <c r="A41" s="63"/>
+      <c r="B41" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="120"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="92">
+        <f>SUM(F42)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="85"/>
+      <c r="I41" s="92">
+        <f>SUM(H42)</f>
+        <v>0</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="4"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110">
+        <f>SUM(M41:P41)</f>
+        <v>0</v>
+      </c>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -2996,25 +3500,25 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+    <row r="42" ht="15.0" customHeight="1">
+      <c r="A42" s="63"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="147"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="4"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="148"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="148"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -3031,25 +3535,36 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+    <row r="43" ht="15.0" customHeight="1">
+      <c r="A43" s="63"/>
+      <c r="B43" s="149" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="154">
+        <f>SUM(F44)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="153"/>
+      <c r="I43" s="154">
+        <f>SUM(H44)</f>
+        <v>0</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="4"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="155"/>
+      <c r="P43" s="155"/>
+      <c r="Q43" s="155"/>
+      <c r="R43" s="155">
+        <f>SUM(M43:P43)</f>
+        <v>0</v>
+      </c>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
@@ -3066,25 +3581,25 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+    <row r="44" ht="15.0" customHeight="1">
+      <c r="A44" s="134"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="141"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="4"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="142"/>
+      <c r="R44" s="142"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -3101,145 +3616,174 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="A45" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="158"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="161">
+        <f t="shared" ref="F45:G45" si="1">SUM(F5:F44)</f>
+        <v>32.5</v>
+      </c>
+      <c r="G45" s="162">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="H45" s="163">
+        <f>SUM(M45:P45)</f>
+        <v>94.5</v>
+      </c>
+      <c r="I45" s="162">
+        <f>SUM(I5:I44)</f>
+        <v>38.8</v>
+      </c>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="163">
+        <f t="shared" ref="M45:P45" si="2">SUM(M5:M44)</f>
+        <v>20.25</v>
+      </c>
+      <c r="N45" s="163">
+        <f t="shared" si="2"/>
+        <v>27.25</v>
+      </c>
+      <c r="O45" s="163">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P45" s="163">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q45" s="163"/>
+      <c r="R45" s="163">
+        <f>SUM(M45:P45)</f>
+        <v>94.5</v>
+      </c>
+      <c r="S45" s="164"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
+      <c r="W45" s="164"/>
+      <c r="X45" s="164"/>
+      <c r="Y45" s="164"/>
+      <c r="Z45" s="164"/>
+      <c r="AA45" s="164"/>
+      <c r="AB45" s="164"/>
+      <c r="AC45" s="164"/>
+      <c r="AD45" s="164"/>
+      <c r="AE45" s="164"/>
+      <c r="AF45" s="164"/>
+      <c r="AG45" s="164"/>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="166"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="166"/>
+      <c r="N48" s="166"/>
+      <c r="O48" s="166"/>
+      <c r="P48" s="166"/>
+      <c r="Q48" s="166"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
@@ -35546,8 +36090,358 @@
       <c r="AF971" s="4"/>
       <c r="AG971" s="4"/>
     </row>
+    <row r="972">
+      <c r="A972" s="1"/>
+      <c r="B972" s="1"/>
+      <c r="C972" s="2"/>
+      <c r="D972" s="3"/>
+      <c r="E972" s="4"/>
+      <c r="F972" s="4"/>
+      <c r="G972" s="5"/>
+      <c r="H972" s="4"/>
+      <c r="I972" s="4"/>
+      <c r="J972" s="4"/>
+      <c r="K972" s="4"/>
+      <c r="L972" s="4"/>
+      <c r="M972" s="6"/>
+      <c r="N972" s="6"/>
+      <c r="O972" s="6"/>
+      <c r="P972" s="6"/>
+      <c r="Q972" s="6"/>
+      <c r="R972" s="4"/>
+      <c r="S972" s="4"/>
+      <c r="T972" s="4"/>
+      <c r="U972" s="4"/>
+      <c r="V972" s="4"/>
+      <c r="W972" s="4"/>
+      <c r="X972" s="4"/>
+      <c r="Y972" s="4"/>
+      <c r="Z972" s="4"/>
+      <c r="AA972" s="4"/>
+      <c r="AB972" s="4"/>
+      <c r="AC972" s="4"/>
+      <c r="AD972" s="4"/>
+      <c r="AE972" s="4"/>
+      <c r="AF972" s="4"/>
+      <c r="AG972" s="4"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="1"/>
+      <c r="B973" s="1"/>
+      <c r="C973" s="2"/>
+      <c r="D973" s="3"/>
+      <c r="E973" s="4"/>
+      <c r="F973" s="4"/>
+      <c r="G973" s="5"/>
+      <c r="H973" s="4"/>
+      <c r="I973" s="4"/>
+      <c r="J973" s="4"/>
+      <c r="K973" s="4"/>
+      <c r="L973" s="4"/>
+      <c r="M973" s="6"/>
+      <c r="N973" s="6"/>
+      <c r="O973" s="6"/>
+      <c r="P973" s="6"/>
+      <c r="Q973" s="6"/>
+      <c r="R973" s="4"/>
+      <c r="S973" s="4"/>
+      <c r="T973" s="4"/>
+      <c r="U973" s="4"/>
+      <c r="V973" s="4"/>
+      <c r="W973" s="4"/>
+      <c r="X973" s="4"/>
+      <c r="Y973" s="4"/>
+      <c r="Z973" s="4"/>
+      <c r="AA973" s="4"/>
+      <c r="AB973" s="4"/>
+      <c r="AC973" s="4"/>
+      <c r="AD973" s="4"/>
+      <c r="AE973" s="4"/>
+      <c r="AF973" s="4"/>
+      <c r="AG973" s="4"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="1"/>
+      <c r="B974" s="1"/>
+      <c r="C974" s="2"/>
+      <c r="D974" s="3"/>
+      <c r="E974" s="4"/>
+      <c r="F974" s="4"/>
+      <c r="G974" s="5"/>
+      <c r="H974" s="4"/>
+      <c r="I974" s="4"/>
+      <c r="J974" s="4"/>
+      <c r="K974" s="4"/>
+      <c r="L974" s="4"/>
+      <c r="M974" s="6"/>
+      <c r="N974" s="6"/>
+      <c r="O974" s="6"/>
+      <c r="P974" s="6"/>
+      <c r="Q974" s="6"/>
+      <c r="R974" s="4"/>
+      <c r="S974" s="4"/>
+      <c r="T974" s="4"/>
+      <c r="U974" s="4"/>
+      <c r="V974" s="4"/>
+      <c r="W974" s="4"/>
+      <c r="X974" s="4"/>
+      <c r="Y974" s="4"/>
+      <c r="Z974" s="4"/>
+      <c r="AA974" s="4"/>
+      <c r="AB974" s="4"/>
+      <c r="AC974" s="4"/>
+      <c r="AD974" s="4"/>
+      <c r="AE974" s="4"/>
+      <c r="AF974" s="4"/>
+      <c r="AG974" s="4"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="1"/>
+      <c r="B975" s="1"/>
+      <c r="C975" s="2"/>
+      <c r="D975" s="3"/>
+      <c r="E975" s="4"/>
+      <c r="F975" s="4"/>
+      <c r="G975" s="5"/>
+      <c r="H975" s="4"/>
+      <c r="I975" s="4"/>
+      <c r="J975" s="4"/>
+      <c r="K975" s="4"/>
+      <c r="L975" s="4"/>
+      <c r="M975" s="6"/>
+      <c r="N975" s="6"/>
+      <c r="O975" s="6"/>
+      <c r="P975" s="6"/>
+      <c r="Q975" s="6"/>
+      <c r="R975" s="4"/>
+      <c r="S975" s="4"/>
+      <c r="T975" s="4"/>
+      <c r="U975" s="4"/>
+      <c r="V975" s="4"/>
+      <c r="W975" s="4"/>
+      <c r="X975" s="4"/>
+      <c r="Y975" s="4"/>
+      <c r="Z975" s="4"/>
+      <c r="AA975" s="4"/>
+      <c r="AB975" s="4"/>
+      <c r="AC975" s="4"/>
+      <c r="AD975" s="4"/>
+      <c r="AE975" s="4"/>
+      <c r="AF975" s="4"/>
+      <c r="AG975" s="4"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="1"/>
+      <c r="B976" s="1"/>
+      <c r="C976" s="2"/>
+      <c r="D976" s="3"/>
+      <c r="E976" s="4"/>
+      <c r="F976" s="4"/>
+      <c r="G976" s="5"/>
+      <c r="H976" s="4"/>
+      <c r="I976" s="4"/>
+      <c r="J976" s="4"/>
+      <c r="K976" s="4"/>
+      <c r="L976" s="4"/>
+      <c r="M976" s="6"/>
+      <c r="N976" s="6"/>
+      <c r="O976" s="6"/>
+      <c r="P976" s="6"/>
+      <c r="Q976" s="6"/>
+      <c r="R976" s="4"/>
+      <c r="S976" s="4"/>
+      <c r="T976" s="4"/>
+      <c r="U976" s="4"/>
+      <c r="V976" s="4"/>
+      <c r="W976" s="4"/>
+      <c r="X976" s="4"/>
+      <c r="Y976" s="4"/>
+      <c r="Z976" s="4"/>
+      <c r="AA976" s="4"/>
+      <c r="AB976" s="4"/>
+      <c r="AC976" s="4"/>
+      <c r="AD976" s="4"/>
+      <c r="AE976" s="4"/>
+      <c r="AF976" s="4"/>
+      <c r="AG976" s="4"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="1"/>
+      <c r="B977" s="1"/>
+      <c r="C977" s="2"/>
+      <c r="D977" s="3"/>
+      <c r="E977" s="4"/>
+      <c r="F977" s="4"/>
+      <c r="G977" s="5"/>
+      <c r="H977" s="4"/>
+      <c r="I977" s="4"/>
+      <c r="J977" s="4"/>
+      <c r="K977" s="4"/>
+      <c r="L977" s="4"/>
+      <c r="M977" s="6"/>
+      <c r="N977" s="6"/>
+      <c r="O977" s="6"/>
+      <c r="P977" s="6"/>
+      <c r="Q977" s="6"/>
+      <c r="R977" s="4"/>
+      <c r="S977" s="4"/>
+      <c r="T977" s="4"/>
+      <c r="U977" s="4"/>
+      <c r="V977" s="4"/>
+      <c r="W977" s="4"/>
+      <c r="X977" s="4"/>
+      <c r="Y977" s="4"/>
+      <c r="Z977" s="4"/>
+      <c r="AA977" s="4"/>
+      <c r="AB977" s="4"/>
+      <c r="AC977" s="4"/>
+      <c r="AD977" s="4"/>
+      <c r="AE977" s="4"/>
+      <c r="AF977" s="4"/>
+      <c r="AG977" s="4"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="1"/>
+      <c r="B978" s="1"/>
+      <c r="C978" s="2"/>
+      <c r="D978" s="3"/>
+      <c r="E978" s="4"/>
+      <c r="F978" s="4"/>
+      <c r="G978" s="5"/>
+      <c r="H978" s="4"/>
+      <c r="I978" s="4"/>
+      <c r="J978" s="4"/>
+      <c r="K978" s="4"/>
+      <c r="L978" s="4"/>
+      <c r="M978" s="6"/>
+      <c r="N978" s="6"/>
+      <c r="O978" s="6"/>
+      <c r="P978" s="6"/>
+      <c r="Q978" s="6"/>
+      <c r="R978" s="4"/>
+      <c r="S978" s="4"/>
+      <c r="T978" s="4"/>
+      <c r="U978" s="4"/>
+      <c r="V978" s="4"/>
+      <c r="W978" s="4"/>
+      <c r="X978" s="4"/>
+      <c r="Y978" s="4"/>
+      <c r="Z978" s="4"/>
+      <c r="AA978" s="4"/>
+      <c r="AB978" s="4"/>
+      <c r="AC978" s="4"/>
+      <c r="AD978" s="4"/>
+      <c r="AE978" s="4"/>
+      <c r="AF978" s="4"/>
+      <c r="AG978" s="4"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="1"/>
+      <c r="B979" s="1"/>
+      <c r="C979" s="2"/>
+      <c r="D979" s="3"/>
+      <c r="E979" s="4"/>
+      <c r="F979" s="4"/>
+      <c r="G979" s="5"/>
+      <c r="H979" s="4"/>
+      <c r="I979" s="4"/>
+      <c r="J979" s="4"/>
+      <c r="K979" s="4"/>
+      <c r="L979" s="4"/>
+      <c r="M979" s="6"/>
+      <c r="N979" s="6"/>
+      <c r="O979" s="6"/>
+      <c r="P979" s="6"/>
+      <c r="Q979" s="6"/>
+      <c r="R979" s="4"/>
+      <c r="S979" s="4"/>
+      <c r="T979" s="4"/>
+      <c r="U979" s="4"/>
+      <c r="V979" s="4"/>
+      <c r="W979" s="4"/>
+      <c r="X979" s="4"/>
+      <c r="Y979" s="4"/>
+      <c r="Z979" s="4"/>
+      <c r="AA979" s="4"/>
+      <c r="AB979" s="4"/>
+      <c r="AC979" s="4"/>
+      <c r="AD979" s="4"/>
+      <c r="AE979" s="4"/>
+      <c r="AF979" s="4"/>
+      <c r="AG979" s="4"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1"/>
+      <c r="B980" s="1"/>
+      <c r="C980" s="2"/>
+      <c r="D980" s="3"/>
+      <c r="E980" s="4"/>
+      <c r="F980" s="4"/>
+      <c r="G980" s="5"/>
+      <c r="H980" s="4"/>
+      <c r="I980" s="4"/>
+      <c r="J980" s="4"/>
+      <c r="K980" s="4"/>
+      <c r="L980" s="4"/>
+      <c r="M980" s="6"/>
+      <c r="N980" s="6"/>
+      <c r="O980" s="6"/>
+      <c r="P980" s="6"/>
+      <c r="Q980" s="6"/>
+      <c r="R980" s="4"/>
+      <c r="S980" s="4"/>
+      <c r="T980" s="4"/>
+      <c r="U980" s="4"/>
+      <c r="V980" s="4"/>
+      <c r="W980" s="4"/>
+      <c r="X980" s="4"/>
+      <c r="Y980" s="4"/>
+      <c r="Z980" s="4"/>
+      <c r="AA980" s="4"/>
+      <c r="AB980" s="4"/>
+      <c r="AC980" s="4"/>
+      <c r="AD980" s="4"/>
+      <c r="AE980" s="4"/>
+      <c r="AF980" s="4"/>
+      <c r="AG980" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I5:I36 M5:Q22 R5:R36 M24:Q36">
+  <mergeCells count="33">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AE36"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I5:I45 M5:Q23 R5:R45 M25:Q45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
